--- a/LOF_base_overall_perform.xlsx
+++ b/LOF_base_overall_perform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>ensemble_best_auc</t>
   </si>
@@ -28,6 +28,9 @@
     <t>DataSets</t>
   </si>
   <si>
+    <t>best_comb</t>
+  </si>
+  <si>
     <t>WPBC_withoutdupl_norm_auc_collection</t>
   </si>
   <si>
@@ -137,6 +140,27 @@
   </si>
   <si>
     <t>Arrhythmia_withoutdupl_46_auc_collection</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_2std:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sido:thr_2std:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_2std:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sodi:thr_2std:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_min:thr_2std:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_mean:thr_2std:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_2std:dis_std</t>
   </si>
 </sst>
 </file>
@@ -494,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,634 +537,748 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.519</v>
+        <v>0.52</v>
       </c>
       <c r="C2">
-        <v>0.523</v>
+        <v>0.545</v>
       </c>
       <c r="D2">
-        <v>-0.004000000000000004</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.733</v>
+        <v>0.829</v>
       </c>
       <c r="C3">
-        <v>0.758</v>
+        <v>0.85</v>
       </c>
       <c r="D3">
-        <v>-0.02500000000000002</v>
+        <v>-0.02100000000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.916</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="C4">
-        <v>0.915</v>
+        <v>0.96</v>
       </c>
       <c r="D4">
-        <v>0.001000000000000001</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.859</v>
+        <v>0.886</v>
       </c>
       <c r="C5">
-        <v>0.867</v>
+        <v>0.904</v>
       </c>
       <c r="D5">
-        <v>-0.008000000000000007</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.637</v>
+        <v>0.989</v>
       </c>
       <c r="C6">
-        <v>0.62</v>
+        <v>0.992</v>
       </c>
       <c r="D6">
-        <v>0.01700000000000002</v>
+        <v>-0.003000000000000003</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.612</v>
+        <v>0.922</v>
       </c>
       <c r="C7">
-        <v>0.577</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="D7">
-        <v>0.03500000000000003</v>
+        <v>-0.01300000000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.597</v>
+        <v>0.738</v>
       </c>
       <c r="C8">
-        <v>0.589</v>
+        <v>0.804</v>
       </c>
       <c r="D8">
-        <v>0.008000000000000007</v>
+        <v>-0.06600000000000006</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.983</v>
+        <v>0.99</v>
       </c>
       <c r="C9">
-        <v>0.969</v>
+        <v>0.99</v>
       </c>
       <c r="D9">
-        <v>0.01400000000000001</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.789</v>
+        <v>0.633</v>
       </c>
       <c r="C10">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="D10">
-        <v>0.01100000000000001</v>
+        <v>-0.144</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.634</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="C11">
-        <v>0.632</v>
+        <v>0.746</v>
       </c>
       <c r="D11">
-        <v>0.002000000000000002</v>
+        <v>-0.05999999999999994</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.628</v>
+        <v>0.534</v>
       </c>
       <c r="C12">
-        <v>0.649</v>
+        <v>0.575</v>
       </c>
       <c r="D12">
-        <v>-0.02100000000000002</v>
+        <v>-0.04099999999999993</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.766</v>
+        <v>0.673</v>
       </c>
       <c r="C13">
-        <v>0.767</v>
+        <v>0.745</v>
       </c>
       <c r="D13">
-        <v>-0.001000000000000001</v>
+        <v>-0.07199999999999995</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.741</v>
       </c>
       <c r="C14">
-        <v>0.57</v>
+        <v>0.766</v>
       </c>
       <c r="D14">
-        <v>0.03000000000000003</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.747</v>
+        <v>0.784</v>
       </c>
       <c r="C15">
-        <v>0.753</v>
+        <v>0.748</v>
       </c>
       <c r="D15">
-        <v>-0.006000000000000005</v>
+        <v>0.03600000000000003</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.991</v>
+        <v>0.988</v>
       </c>
       <c r="C16">
-        <v>0.989</v>
+        <v>0.994</v>
       </c>
       <c r="D16">
-        <v>0.002000000000000002</v>
+        <v>-0.006000000000000005</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.486</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="C17">
-        <v>0.482</v>
+        <v>0.724</v>
       </c>
       <c r="D17">
-        <v>0.004000000000000004</v>
+        <v>-0.1619999999999999</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.954</v>
+        <v>0.964</v>
       </c>
       <c r="C18">
-        <v>0.954</v>
+        <v>0.978</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01400000000000001</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.772</v>
+        <v>0.881</v>
       </c>
       <c r="C19">
-        <v>0.771</v>
+        <v>0.905</v>
       </c>
       <c r="D19">
-        <v>0.001000000000000001</v>
+        <v>-0.02400000000000002</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6860000000000001</v>
+        <v>0.745</v>
       </c>
       <c r="C20">
-        <v>0.665</v>
+        <v>0.713</v>
       </c>
       <c r="D20">
-        <v>0.02100000000000002</v>
+        <v>0.03200000000000003</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.951</v>
+        <v>0.958</v>
       </c>
       <c r="C21">
-        <v>0.947</v>
+        <v>0.977</v>
       </c>
       <c r="D21">
-        <v>0.004000000000000004</v>
+        <v>-0.01900000000000002</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.965</v>
+        <v>0.963</v>
       </c>
       <c r="C22">
-        <v>0.947</v>
+        <v>0.946</v>
       </c>
       <c r="D22">
-        <v>0.01800000000000002</v>
+        <v>0.01700000000000002</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="C23">
-        <v>0.999</v>
+        <v>0.998</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.538</v>
+        <v>0.375</v>
       </c>
       <c r="C24">
-        <v>0.53</v>
+        <v>0.482</v>
       </c>
       <c r="D24">
-        <v>0.008000000000000007</v>
+        <v>-0.107</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.529</v>
+        <v>0.99</v>
       </c>
       <c r="C25">
-        <v>0.491</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0.03800000000000003</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.702</v>
+        <v>0.995</v>
       </c>
       <c r="C26">
-        <v>0.627</v>
+        <v>0.994</v>
       </c>
       <c r="D26">
-        <v>0.07499999999999996</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7</v>
+        <v>0.645</v>
       </c>
       <c r="C27">
-        <v>0.6889999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="D27">
-        <v>0.01100000000000001</v>
+        <v>-0.04200000000000004</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5669999999999999</v>
+        <v>0.989</v>
       </c>
       <c r="C28">
-        <v>0.467</v>
+        <v>0.994</v>
       </c>
       <c r="D28">
-        <v>0.09999999999999992</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.879</v>
+        <v>0.882</v>
       </c>
       <c r="C29">
-        <v>0.856</v>
+        <v>0.866</v>
       </c>
       <c r="D29">
-        <v>0.02300000000000002</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8080000000000001</v>
+        <v>0.881</v>
       </c>
       <c r="C30">
-        <v>0.756</v>
+        <v>0.93</v>
       </c>
       <c r="D30">
-        <v>0.05200000000000005</v>
+        <v>-0.04900000000000004</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9399999999999999</v>
+        <v>0.912</v>
       </c>
       <c r="C31">
-        <v>0.894</v>
+        <v>0.927</v>
       </c>
       <c r="D31">
-        <v>0.04599999999999993</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.837</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="C32">
-        <v>0.832</v>
+        <v>0.853</v>
       </c>
       <c r="D32">
-        <v>0.005000000000000004</v>
+        <v>0.08200000000000007</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.625</v>
+        <v>0.668</v>
       </c>
       <c r="C33">
-        <v>0.626</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="D33">
-        <v>-0.001000000000000001</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.634</v>
+        <v>0.706</v>
       </c>
       <c r="C34">
-        <v>0.666</v>
+        <v>0.87</v>
       </c>
       <c r="D34">
-        <v>-0.03200000000000003</v>
+        <v>-0.164</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.539</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="C35">
-        <v>0.554</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D35">
-        <v>-0.01500000000000001</v>
+        <v>-0.004999999999999893</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.911</v>
+        <v>0.877</v>
       </c>
       <c r="C36">
-        <v>0.913</v>
+        <v>0.929</v>
       </c>
       <c r="D36">
-        <v>-0.002000000000000002</v>
+        <v>-0.05200000000000005</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.659</v>
+        <v>0.672</v>
       </c>
       <c r="C37">
-        <v>0.652</v>
+        <v>0.752</v>
       </c>
       <c r="D37">
-        <v>0.007000000000000006</v>
+        <v>-0.07999999999999996</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="C38">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="D38">
         <v>0.002000000000000002</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/LOF_base_overall_perform.xlsx
+++ b/LOF_base_overall_perform.xlsx
@@ -154,13 +154,13 @@
     <t>ensem_sodi:thr_2std:dis_std</t>
   </si>
   <si>
+    <t>ensem_sum_self_inverse:thr_2std:dis_std</t>
+  </si>
+  <si>
     <t>ensem_min:thr_2std:dis_std</t>
   </si>
   <si>
     <t>ensem_mean:thr_2std:dis_std</t>
-  </si>
-  <si>
-    <t>ensem_sum_self_inverse:thr_2std:dis_std</t>
   </si>
 </sst>
 </file>
@@ -546,13 +546,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.52</v>
+        <v>0.523</v>
       </c>
       <c r="C2">
         <v>0.545</v>
       </c>
       <c r="D2">
-        <v>-0.02500000000000002</v>
+        <v>-0.02200000000000002</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -566,13 +566,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.829</v>
+        <v>0.828</v>
       </c>
       <c r="C3">
         <v>0.85</v>
       </c>
       <c r="D3">
-        <v>-0.02100000000000002</v>
+        <v>-0.02200000000000002</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9419999999999999</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="C4">
         <v>0.96</v>
       </c>
       <c r="D4">
-        <v>-0.01800000000000002</v>
+        <v>-0.01700000000000002</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -606,13 +606,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.886</v>
+        <v>0.887</v>
       </c>
       <c r="C5">
         <v>0.904</v>
       </c>
       <c r="D5">
-        <v>-0.01800000000000002</v>
+        <v>-0.01700000000000002</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -646,13 +646,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.922</v>
+        <v>0.92</v>
       </c>
       <c r="C7">
         <v>0.9350000000000001</v>
       </c>
       <c r="D7">
-        <v>-0.01300000000000001</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -666,13 +666,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="C8">
         <v>0.804</v>
       </c>
       <c r="D8">
-        <v>-0.06600000000000006</v>
+        <v>-0.06500000000000006</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -726,19 +726,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6860000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C11">
         <v>0.746</v>
       </c>
       <c r="D11">
-        <v>-0.05999999999999994</v>
+        <v>-0.06099999999999994</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -746,13 +746,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.534</v>
+        <v>0.536</v>
       </c>
       <c r="C12">
         <v>0.575</v>
       </c>
       <c r="D12">
-        <v>-0.04099999999999993</v>
+        <v>-0.03899999999999992</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -786,19 +786,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="C14">
         <v>0.766</v>
       </c>
       <c r="D14">
-        <v>-0.02500000000000002</v>
+        <v>-0.02600000000000002</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -806,13 +806,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="C15">
         <v>0.748</v>
       </c>
       <c r="D15">
-        <v>0.03600000000000003</v>
+        <v>0.03300000000000003</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -846,13 +846,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5620000000000001</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="C17">
         <v>0.724</v>
       </c>
       <c r="D17">
-        <v>-0.1619999999999999</v>
+        <v>-0.1629999999999999</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -866,13 +866,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.964</v>
+        <v>0.963</v>
       </c>
       <c r="C18">
-        <v>0.978</v>
+        <v>0.976</v>
       </c>
       <c r="D18">
-        <v>-0.01400000000000001</v>
+        <v>-0.01300000000000001</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -906,13 +906,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.745</v>
+        <v>0.75</v>
       </c>
       <c r="C20">
         <v>0.713</v>
       </c>
       <c r="D20">
-        <v>0.03200000000000003</v>
+        <v>0.03700000000000003</v>
       </c>
       <c r="E20" t="s">
         <v>23</v>
@@ -966,19 +966,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
       <c r="C23">
         <v>0.998</v>
       </c>
       <c r="D23">
-        <v>-0.001000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -986,19 +986,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="C24">
         <v>0.482</v>
       </c>
       <c r="D24">
-        <v>-0.107</v>
+        <v>-0.102</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1006,13 +1006,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.99</v>
+        <v>0.989</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>-0.01000000000000001</v>
+        <v>-0.01100000000000001</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
@@ -1026,19 +1026,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.995</v>
+        <v>0.996</v>
       </c>
       <c r="C26">
         <v>0.994</v>
       </c>
       <c r="D26">
-        <v>0.001000000000000001</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1046,13 +1046,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.645</v>
+        <v>0.646</v>
       </c>
       <c r="C27">
         <v>0.6870000000000001</v>
       </c>
       <c r="D27">
-        <v>-0.04200000000000004</v>
+        <v>-0.04100000000000004</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
@@ -1078,7 +1078,7 @@
         <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1106,19 +1106,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.881</v>
+        <v>0.883</v>
       </c>
       <c r="C30">
         <v>0.93</v>
       </c>
       <c r="D30">
-        <v>-0.04900000000000004</v>
+        <v>-0.04700000000000004</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1126,13 +1126,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.912</v>
+        <v>0.913</v>
       </c>
       <c r="C31">
         <v>0.927</v>
       </c>
       <c r="D31">
-        <v>-0.01500000000000001</v>
+        <v>-0.01400000000000001</v>
       </c>
       <c r="E31" t="s">
         <v>34</v>
@@ -1158,7 +1158,7 @@
         <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1166,19 +1166,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.668</v>
+        <v>0.666</v>
       </c>
       <c r="C33">
         <v>0.6860000000000001</v>
       </c>
       <c r="D33">
-        <v>-0.01800000000000002</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1206,19 +1206,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6830000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="C35">
         <v>0.6879999999999999</v>
       </c>
       <c r="D35">
-        <v>-0.004999999999999893</v>
+        <v>-0.007999999999999896</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1226,13 +1226,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.877</v>
+        <v>0.876</v>
       </c>
       <c r="C36">
         <v>0.929</v>
       </c>
       <c r="D36">
-        <v>-0.05200000000000005</v>
+        <v>-0.05300000000000005</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
@@ -1246,13 +1246,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.672</v>
+        <v>0.671</v>
       </c>
       <c r="C37">
         <v>0.752</v>
       </c>
       <c r="D37">
-        <v>-0.07999999999999996</v>
+        <v>-0.08099999999999996</v>
       </c>
       <c r="E37" t="s">
         <v>40</v>
